--- a/server/classdata.xlsx
+++ b/server/classdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\gitHub\timetableShare\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A493098-3B0B-4474-9E80-04E54C9F5A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674E96B9-FACB-4F3C-88FD-EB145CDAA4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="139">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -126,22 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テクニカルライティング1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テクニカルライティング2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リーディング&amp;ライティング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブラッシュアップイングリッシュ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>法と社会</t>
     <rPh sb="0" eb="1">
       <t>ホウ</t>
@@ -637,19 +621,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>複素関数論</t>
-    <rPh sb="0" eb="2">
-      <t>フクソ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ロン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自然科学の基礎</t>
     <rPh sb="0" eb="2">
       <t>シゼン</t>
@@ -683,16 +654,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>電磁気の応用</t>
-    <rPh sb="0" eb="3">
-      <t>デンジキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>オウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>現代物理入門</t>
     <rPh sb="0" eb="2">
       <t>ゲンダイ</t>
@@ -706,22 +667,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エントロピー-熱・統計力学、情報-</t>
-    <rPh sb="7" eb="8">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウケイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>リキガク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>数理実験</t>
     <rPh sb="0" eb="2">
       <t>スウリ</t>
@@ -892,73 +837,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>情報科学実験</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カガク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジッケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インターンシップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>教育アシスト</t>
-    <rPh sb="0" eb="2">
-      <t>キョウイク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>情報科学特講</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カガク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>情報科学卒業論文</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カガク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソツギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ロンブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リクエスト集中講義</t>
-    <rPh sb="5" eb="7">
-      <t>シュウチュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Study Abroad</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CF特論</t>
     <rPh sb="2" eb="4">
       <t>トクロン</t>
@@ -988,13 +866,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プログラミング演習(C/C++)</t>
-    <rPh sb="7" eb="9">
-      <t>エンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>形式言語とオートマトン</t>
     <rPh sb="0" eb="4">
       <t>ケイシキゲンゴ</t>
@@ -1015,10 +886,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンパイラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データ構造とアルゴリズム2</t>
     <rPh sb="3" eb="5">
       <t>コウゾウ</t>
@@ -1056,16 +923,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>情報基礎学B</t>
-    <rPh sb="0" eb="4">
-      <t>ジョウホウキソ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンピュータ構成と設計</t>
     <rPh sb="6" eb="8">
       <t>コウセイ</t>
@@ -1086,43 +943,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オペレーティングシステム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>型システムと関数型言語</t>
-    <rPh sb="0" eb="1">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>カンスウガタ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ゲンゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ソフトウェア工学</t>
-    <rPh sb="6" eb="8">
-      <t>コウガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>並立分散処理</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイリツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンサン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>情報・ネットワークセキュリティ入門</t>
     <rPh sb="0" eb="2">
       <t>ジョウホウ</t>
@@ -1159,40 +979,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プログラミング3(Java)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンピュータネットワーク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サービスコンピューティング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オペレーションズリサーチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オブジェクト指向プログラミング</t>
-    <rPh sb="6" eb="8">
-      <t>シコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>情報検索</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユビキタスインテリジェンス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1203,23 +990,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンピュータグラフィックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パターン認識と機械学習</t>
-    <rPh sb="4" eb="6">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プログラミング演習1(python)</t>
     <rPh sb="7" eb="9">
       <t>エンシュウ</t>
@@ -1251,69 +1021,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ディジタル信号処理</t>
-    <rPh sb="5" eb="7">
-      <t>シンゴウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像処理</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>音声情報処理</t>
-    <rPh sb="0" eb="2">
-      <t>オンセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プログラミング演習2(MATLAB)</t>
-    <rPh sb="7" eb="9">
-      <t>エンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数学演習2</t>
-    <rPh sb="0" eb="2">
-      <t>スウガク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>エンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>科学技術計算</t>
-    <rPh sb="0" eb="2">
-      <t>カガク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ギジュツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>微積分法の応用2</t>
     <rPh sb="0" eb="4">
       <t>ビセキブンホウ</t>
@@ -1324,16 +1031,111 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>生体情報論</t>
-    <rPh sb="0" eb="2">
-      <t>セイタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ロン</t>
-    </rPh>
+    <t>season</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wednesday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thursday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tuesday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saturday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Friday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1660,1302 +1462,4137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G54" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
         <v>16</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
         <v>17</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="b">
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
         <v>18</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="b">
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G58" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
         <v>19</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="b">
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>124</v>
+      </c>
+      <c r="G59" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
         <v>20</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="b">
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
         <v>21</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="b">
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
         <v>22</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="b">
+      <c r="B62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
         <v>23</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="b">
+      <c r="B63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
         <v>24</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="b">
+      <c r="B64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>124</v>
+      </c>
+      <c r="G64" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
         <v>25</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="b">
+      <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>124</v>
+      </c>
+      <c r="G65" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
         <v>26</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="b">
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>124</v>
+      </c>
+      <c r="G66" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
         <v>27</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1" t="b">
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
         <v>28</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1" t="b">
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>124</v>
+      </c>
+      <c r="G68" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
         <v>29</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1" t="b">
+      <c r="B69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>124</v>
+      </c>
+      <c r="G69" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1" t="b">
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>122</v>
+      </c>
+      <c r="G70" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>122</v>
+      </c>
+      <c r="G72" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>123</v>
+      </c>
+      <c r="G75" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>122</v>
+      </c>
+      <c r="G76" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>123</v>
+      </c>
+      <c r="G77" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>122</v>
+      </c>
+      <c r="G78" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>123</v>
+      </c>
+      <c r="G79" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>124</v>
+      </c>
+      <c r="G80" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1" t="b">
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>122</v>
+      </c>
+      <c r="G81" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>123</v>
+      </c>
+      <c r="G82" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>124</v>
+      </c>
+      <c r="G83" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="b">
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>124</v>
+      </c>
+      <c r="G84" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="b">
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1" t="b">
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>124</v>
+      </c>
+      <c r="G86" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>124</v>
+      </c>
+      <c r="G87" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>122</v>
+      </c>
+      <c r="G88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1" t="b">
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
         <v>68</v>
       </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1" t="b">
+      <c r="B90" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>122</v>
+      </c>
+      <c r="G90" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>123</v>
+      </c>
+      <c r="G91" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
         <v>69</v>
       </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1" t="b">
+      <c r="B92" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>122</v>
+      </c>
+      <c r="G92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>69</v>
+      </c>
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" t="s">
+        <v>119</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>123</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
         <v>70</v>
       </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" t="b">
+      <c r="B94" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>122</v>
+      </c>
+      <c r="G94" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>123</v>
+      </c>
+      <c r="G95" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>122</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>123</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>122</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" t="s">
+        <v>121</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>123</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B100" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>122</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>73</v>
+      </c>
+      <c r="B101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>123</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>122</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" t="s">
+        <v>119</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>123</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>122</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>75</v>
+      </c>
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>123</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>135</v>
+      </c>
+      <c r="G106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1" t="b">
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>76</v>
+      </c>
+      <c r="B107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>136</v>
+      </c>
+      <c r="G107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="b">
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>137</v>
+      </c>
+      <c r="G108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="b">
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>138</v>
+      </c>
+      <c r="G109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="b">
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" t="s">
+        <v>119</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>122</v>
+      </c>
+      <c r="G110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="b">
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>121</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>123</v>
+      </c>
+      <c r="G111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
         <v>78</v>
       </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>124</v>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
         <v>79</v>
       </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>135</v>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>79</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>136</v>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>137</v>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>138</v>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" t="s">
+        <v>116</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>135</v>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>79</v>
+      </c>
+      <c r="B118" t="s">
+        <v>114</v>
+      </c>
+      <c r="C118" t="s">
+        <v>116</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>136</v>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>79</v>
+      </c>
+      <c r="B119" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119" t="s">
+        <v>116</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>137</v>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" t="s">
+        <v>114</v>
+      </c>
+      <c r="C120" t="s">
+        <v>116</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s">
+        <v>138</v>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
         <v>80</v>
       </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
+      <c r="B121" t="s">
+        <v>114</v>
+      </c>
+      <c r="C121" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s">
+        <v>135</v>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>80</v>
+      </c>
+      <c r="B122" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122" t="s">
+        <v>119</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s">
+        <v>136</v>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>80</v>
+      </c>
+      <c r="B123" t="s">
+        <v>114</v>
+      </c>
+      <c r="C123" t="s">
+        <v>119</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>137</v>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>80</v>
+      </c>
+      <c r="B124" t="s">
+        <v>114</v>
+      </c>
+      <c r="C124" t="s">
+        <v>119</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124" t="s">
+        <v>138</v>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" t="s">
+        <v>114</v>
+      </c>
+      <c r="C125" t="s">
+        <v>116</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125" t="s">
+        <v>135</v>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>80</v>
+      </c>
+      <c r="B126" t="s">
+        <v>114</v>
+      </c>
+      <c r="C126" t="s">
+        <v>116</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s">
+        <v>136</v>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>80</v>
+      </c>
+      <c r="B127" t="s">
+        <v>114</v>
+      </c>
+      <c r="C127" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>137</v>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>80</v>
+      </c>
+      <c r="B128" t="s">
+        <v>114</v>
+      </c>
+      <c r="C128" t="s">
+        <v>116</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>138</v>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
         <v>81</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
+      <c r="B129" t="s">
+        <v>115</v>
+      </c>
+      <c r="C129" t="s">
+        <v>118</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129" t="s">
+        <v>135</v>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>81</v>
+      </c>
+      <c r="B130" t="s">
+        <v>115</v>
+      </c>
+      <c r="C130" t="s">
+        <v>118</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130" t="s">
+        <v>136</v>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>81</v>
+      </c>
+      <c r="B131" t="s">
+        <v>115</v>
+      </c>
+      <c r="C131" t="s">
+        <v>117</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>137</v>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>81</v>
+      </c>
+      <c r="B132" t="s">
+        <v>115</v>
+      </c>
+      <c r="C132" t="s">
+        <v>117</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132" t="s">
+        <v>138</v>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
         <v>82</v>
       </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+      <c r="B133" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" t="s">
+        <v>119</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133" t="s">
+        <v>122</v>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>82</v>
+      </c>
+      <c r="B134" t="s">
+        <v>114</v>
+      </c>
+      <c r="C134" t="s">
+        <v>117</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>123</v>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
         <v>83</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="b">
+      <c r="B135" t="s">
+        <v>114</v>
+      </c>
+      <c r="C135" t="s">
+        <v>119</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>135</v>
+      </c>
+      <c r="G135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>83</v>
+      </c>
+      <c r="B136" t="s">
+        <v>114</v>
+      </c>
+      <c r="C136" t="s">
+        <v>119</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>136</v>
+      </c>
+      <c r="G136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>83</v>
+      </c>
+      <c r="B137" t="s">
+        <v>114</v>
+      </c>
+      <c r="C137" t="s">
+        <v>117</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>137</v>
+      </c>
+      <c r="G137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>83</v>
+      </c>
+      <c r="B138" t="s">
+        <v>114</v>
+      </c>
+      <c r="C138" t="s">
+        <v>117</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>138</v>
+      </c>
+      <c r="G138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
         <v>84</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="b">
+      <c r="B139" t="s">
+        <v>115</v>
+      </c>
+      <c r="C139" t="s">
+        <v>119</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139" t="s">
+        <v>122</v>
+      </c>
+      <c r="G139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>84</v>
+      </c>
+      <c r="B140" t="s">
+        <v>115</v>
+      </c>
+      <c r="C140" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140" t="s">
+        <v>123</v>
+      </c>
+      <c r="G140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
         <v>85</v>
       </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
+      <c r="B141" t="s">
+        <v>114</v>
+      </c>
+      <c r="C141" t="s">
+        <v>121</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>124</v>
+      </c>
+      <c r="G141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
         <v>86</v>
       </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
+      <c r="B142" t="s">
+        <v>115</v>
+      </c>
+      <c r="C142" t="s">
+        <v>125</v>
+      </c>
+      <c r="D142" t="s">
+        <v>126</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>124</v>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
         <v>87</v>
       </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
+      <c r="B143" t="s">
+        <v>115</v>
+      </c>
+      <c r="C143" t="s">
+        <v>125</v>
+      </c>
+      <c r="D143" t="s">
+        <v>126</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>124</v>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
         <v>88</v>
       </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
+      <c r="B144" t="s">
+        <v>115</v>
+      </c>
+      <c r="C144" t="s">
+        <v>125</v>
+      </c>
+      <c r="D144" t="s">
+        <v>126</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>124</v>
+      </c>
+      <c r="G144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
         <v>89</v>
       </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
+      <c r="B145" t="s">
+        <v>114</v>
+      </c>
+      <c r="C145" t="s">
+        <v>121</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+      <c r="F145" t="s">
+        <v>124</v>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>89</v>
+      </c>
+      <c r="B146" t="s">
+        <v>114</v>
+      </c>
+      <c r="C146" t="s">
+        <v>121</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146" t="s">
+        <v>124</v>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
         <v>90</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" t="b">
+      <c r="B147" t="s">
+        <v>115</v>
+      </c>
+      <c r="C147" t="s">
+        <v>119</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>4</v>
+      </c>
+      <c r="F147" t="s">
+        <v>124</v>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>90</v>
+      </c>
+      <c r="B148" t="s">
+        <v>115</v>
+      </c>
+      <c r="C148" t="s">
+        <v>119</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+      <c r="F148" t="s">
+        <v>124</v>
+      </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>91</v>
+      </c>
+      <c r="B149" t="s">
+        <v>114</v>
+      </c>
+      <c r="C149" t="s">
+        <v>119</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s">
+        <v>122</v>
+      </c>
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>91</v>
+      </c>
+      <c r="B150" t="s">
+        <v>114</v>
+      </c>
+      <c r="C150" t="s">
+        <v>119</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150" t="s">
+        <v>123</v>
+      </c>
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>92</v>
+      </c>
+      <c r="B151" t="s">
+        <v>114</v>
+      </c>
+      <c r="C151" t="s">
+        <v>119</v>
+      </c>
+      <c r="D151">
+        <v>5</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s">
+        <v>124</v>
+      </c>
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>93</v>
+      </c>
+      <c r="B152" t="s">
+        <v>115</v>
+      </c>
+      <c r="C152" t="s">
+        <v>116</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152" t="s">
+        <v>124</v>
+      </c>
+      <c r="G152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>91</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60" t="b">
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>94</v>
+      </c>
+      <c r="B153" t="s">
+        <v>114</v>
+      </c>
+      <c r="C153" t="s">
+        <v>119</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153" t="s">
+        <v>122</v>
+      </c>
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>94</v>
+      </c>
+      <c r="B154" t="s">
+        <v>114</v>
+      </c>
+      <c r="C154" t="s">
+        <v>119</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154" t="s">
+        <v>123</v>
+      </c>
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>95</v>
+      </c>
+      <c r="B155" t="s">
+        <v>115</v>
+      </c>
+      <c r="C155" t="s">
+        <v>116</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155" t="s">
+        <v>122</v>
+      </c>
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>95</v>
+      </c>
+      <c r="B156" t="s">
+        <v>115</v>
+      </c>
+      <c r="C156" t="s">
+        <v>117</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156" t="s">
+        <v>123</v>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>96</v>
+      </c>
+      <c r="B157" t="s">
+        <v>115</v>
+      </c>
+      <c r="C157" t="s">
+        <v>118</v>
+      </c>
+      <c r="D157">
+        <v>4</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157" t="s">
+        <v>124</v>
+      </c>
+      <c r="G157" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="b">
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>97</v>
+      </c>
+      <c r="B158" t="s">
+        <v>115</v>
+      </c>
+      <c r="C158" t="s">
+        <v>117</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
+        <v>124</v>
+      </c>
+      <c r="G158" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62" t="b">
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>98</v>
+      </c>
+      <c r="B159" t="s">
+        <v>115</v>
+      </c>
+      <c r="C159" t="s">
+        <v>121</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159" t="s">
+        <v>124</v>
+      </c>
+      <c r="G159" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>94</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" t="b">
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>99</v>
+      </c>
+      <c r="B160" t="s">
+        <v>114</v>
+      </c>
+      <c r="C160" t="s">
+        <v>116</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>124</v>
+      </c>
+      <c r="G160" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64" t="b">
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>100</v>
+      </c>
+      <c r="B161" t="s">
+        <v>114</v>
+      </c>
+      <c r="C161" t="s">
+        <v>116</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="E161">
+        <v>4</v>
+      </c>
+      <c r="F161" t="s">
+        <v>122</v>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>100</v>
+      </c>
+      <c r="B162" t="s">
+        <v>114</v>
+      </c>
+      <c r="C162" t="s">
+        <v>116</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+      <c r="F162" t="s">
+        <v>122</v>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>100</v>
+      </c>
+      <c r="B163" t="s">
+        <v>114</v>
+      </c>
+      <c r="C163" t="s">
+        <v>119</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <v>4</v>
+      </c>
+      <c r="F163" t="s">
+        <v>123</v>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>100</v>
+      </c>
+      <c r="B164" t="s">
+        <v>114</v>
+      </c>
+      <c r="C164" t="s">
+        <v>119</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="E164">
+        <v>4</v>
+      </c>
+      <c r="F164" t="s">
+        <v>123</v>
+      </c>
+      <c r="G164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>101</v>
+      </c>
+      <c r="B165" t="s">
+        <v>114</v>
+      </c>
+      <c r="C165" t="s">
+        <v>117</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165" t="s">
+        <v>124</v>
+      </c>
+      <c r="G165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>102</v>
+      </c>
+      <c r="B166" t="s">
+        <v>115</v>
+      </c>
+      <c r="C166" t="s">
+        <v>121</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166" t="s">
+        <v>122</v>
+      </c>
+      <c r="G166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>102</v>
+      </c>
+      <c r="B167" t="s">
+        <v>115</v>
+      </c>
+      <c r="C167" t="s">
+        <v>121</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167" t="s">
+        <v>123</v>
+      </c>
+      <c r="G167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>103</v>
+      </c>
+      <c r="B168" t="s">
+        <v>115</v>
+      </c>
+      <c r="C168" t="s">
+        <v>119</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168" t="s">
+        <v>122</v>
+      </c>
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>103</v>
+      </c>
+      <c r="B169" t="s">
+        <v>115</v>
+      </c>
+      <c r="C169" t="s">
+        <v>119</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169" t="s">
+        <v>123</v>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>104</v>
+      </c>
+      <c r="B170" t="s">
+        <v>115</v>
+      </c>
+      <c r="C170" t="s">
+        <v>117</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>4</v>
+      </c>
+      <c r="F170" t="s">
+        <v>124</v>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>104</v>
+      </c>
+      <c r="B171" t="s">
+        <v>115</v>
+      </c>
+      <c r="C171" t="s">
+        <v>117</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
+      <c r="F171" t="s">
+        <v>124</v>
+      </c>
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>105</v>
+      </c>
+      <c r="B172" t="s">
+        <v>114</v>
+      </c>
+      <c r="C172" t="s">
+        <v>117</v>
+      </c>
+      <c r="D172">
+        <v>5</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172" t="s">
+        <v>124</v>
+      </c>
+      <c r="G172" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>96</v>
-      </c>
-      <c r="D65">
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>106</v>
+      </c>
+      <c r="B173" t="s">
+        <v>114</v>
+      </c>
+      <c r="C173" t="s">
+        <v>121</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s">
+        <v>124</v>
+      </c>
+      <c r="G173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>107</v>
+      </c>
+      <c r="B174" t="s">
+        <v>114</v>
+      </c>
+      <c r="C174" t="s">
+        <v>119</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174" t="s">
+        <v>124</v>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>108</v>
+      </c>
+      <c r="B175" t="s">
+        <v>115</v>
+      </c>
+      <c r="C175" t="s">
+        <v>118</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+      <c r="E175">
         <v>4</v>
       </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>97</v>
-      </c>
-      <c r="D66">
+      <c r="F175" t="s">
+        <v>124</v>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>108</v>
+      </c>
+      <c r="B176" t="s">
+        <v>115</v>
+      </c>
+      <c r="C176" t="s">
+        <v>118</v>
+      </c>
+      <c r="D176">
         <v>4</v>
       </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>99</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D72">
+      <c r="E176">
         <v>4</v>
       </c>
-      <c r="E72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>105</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>106</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-      <c r="E75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="E77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
+      <c r="F176" t="s">
+        <v>124</v>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
         <v>109</v>
       </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
+      <c r="B177" t="s">
+        <v>114</v>
+      </c>
+      <c r="C177" t="s">
+        <v>117</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
+        <v>124</v>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
         <v>110</v>
       </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
+      <c r="B178" t="s">
+        <v>114</v>
+      </c>
+      <c r="C178" t="s">
+        <v>119</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="F178" t="s">
+        <v>124</v>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
         <v>111</v>
       </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-      <c r="E80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>112</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>114</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>115</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>116</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>117</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="E86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>118</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-      <c r="E87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
+      <c r="B179" t="s">
+        <v>115</v>
+      </c>
+      <c r="C179" t="s">
         <v>119</v>
       </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="E88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>120</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-      <c r="E89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>121</v>
-      </c>
-      <c r="D90">
-        <v>4</v>
-      </c>
-      <c r="E90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-      <c r="E91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>123</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179" t="s">
         <v>124</v>
       </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>125</v>
-      </c>
-      <c r="D94">
-        <v>4</v>
-      </c>
-      <c r="E94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>126</v>
-      </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-      <c r="E95" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>127</v>
-      </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
-      <c r="E97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>129</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>130</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>131</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-      <c r="E100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>132</v>
-      </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-      <c r="E101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>133</v>
-      </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>134</v>
-      </c>
-      <c r="D103">
-        <v>2</v>
-      </c>
-      <c r="E103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>135</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>136</v>
-      </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-      <c r="E105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>137</v>
-      </c>
-      <c r="D106">
-        <v>4</v>
-      </c>
-      <c r="E106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>138</v>
-      </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-      <c r="E107" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>139</v>
-      </c>
-      <c r="D108">
-        <v>2</v>
-      </c>
-      <c r="E108" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>140</v>
-      </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>141</v>
-      </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>142</v>
-      </c>
-      <c r="D111">
-        <v>2</v>
-      </c>
-      <c r="E111" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>143</v>
-      </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="E112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>144</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>145</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-      <c r="E114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>146</v>
-      </c>
-      <c r="D115">
-        <v>2</v>
-      </c>
-      <c r="E115" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>147</v>
-      </c>
-      <c r="D116">
-        <v>2</v>
-      </c>
-      <c r="E116" t="b">
+      <c r="G179" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3000,132 +5637,132 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
